--- a/result.xlsx
+++ b/result.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="17">
   <si>
     <t>linear</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,6 +79,10 @@
   </si>
   <si>
     <t>mel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50 ivec +SVM(rbf)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -461,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -779,10 +784,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -793,9 +798,11 @@
     <col min="5" max="5" width="4.625" customWidth="1"/>
     <col min="6" max="6" width="32.125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="10" max="10" width="27.75" customWidth="1"/>
+    <col min="11" max="11" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -807,7 +814,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="4" t="s">
@@ -820,15 +827,22 @@
       <c r="H2" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="6">
+        <v>0.26989999999999997</v>
+      </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="7" t="s">
@@ -837,23 +851,45 @@
       <c r="G3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="H3" s="6">
+        <v>2.6100000000000002E-2</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="6">
+        <v>3.4799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="6">
+        <v>0.34820000000000001</v>
+      </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="H4" s="6">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="6">
+        <v>1.7399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="4" t="s">
         <v>2</v>
@@ -870,8 +906,15 @@
       <c r="H5" s="6">
         <v>1.7399999999999999E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="J5" s="7"/>
+      <c r="K5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="6">
+        <v>1.7399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -881,7 +924,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -891,7 +934,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -903,7 +946,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="4" t="s">
@@ -916,15 +959,22 @@
       <c r="H9" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="6">
+        <v>0.20019999999999999</v>
+      </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="7" t="s">
@@ -933,23 +983,45 @@
       <c r="G10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="H10" s="6">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" s="6">
+        <v>1.7399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="6">
+        <v>0.1045</v>
+      </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="7"/>
       <c r="G11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="H11" s="6">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11" s="6">
+        <v>8.6999999999999994E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="4" t="s">
         <v>2</v>
@@ -966,8 +1038,15 @@
       <c r="H12" s="6">
         <v>3.4799999999999998E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="J12" s="7"/>
+      <c r="K12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" s="6">
+        <v>2.6100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -977,7 +1056,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -987,18 +1066,17 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J10:J12"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="F3:F5"/>
@@ -1009,4 +1087,316 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.732</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.41</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>8.11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>6.3289999999999997</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2">
+        <v>8.14</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>4.3959999999999999</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="2">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" s="2">
+        <v>3.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="E13:E18"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="E3:E8"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="A11:G11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/result.xlsx
+++ b/result.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="20">
   <si>
     <t>linear</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +84,18 @@
   </si>
   <si>
     <t>50 ivec +SVM(rbf)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Original</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Original</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -141,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -149,6 +162,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -466,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:H18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -480,15 +496,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
@@ -506,7 +522,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -516,10 +532,10 @@
         <v>0.42</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -530,7 +546,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
@@ -538,8 +554,8 @@
         <v>0.38</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
       <c r="G4" s="3" t="s">
         <v>3</v>
       </c>
@@ -548,7 +564,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
@@ -556,8 +572,8 @@
         <v>1.57</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
       <c r="G5" s="3" t="s">
         <v>2</v>
       </c>
@@ -570,8 +586,8 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="3" t="s">
@@ -586,8 +602,8 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
       <c r="G7" s="3" t="s">
         <v>3</v>
       </c>
@@ -600,8 +616,8 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
       <c r="G8" s="3" t="s">
         <v>2</v>
       </c>
@@ -630,15 +646,15 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
@@ -656,7 +672,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -666,10 +682,10 @@
         <v>0.11</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="8" t="s">
         <v>9</v>
       </c>
       <c r="G13" s="3" t="s">
@@ -680,7 +696,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
@@ -688,8 +704,8 @@
         <v>0.15</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -698,7 +714,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
+      <c r="A15" s="8"/>
       <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
@@ -706,8 +722,8 @@
         <v>0.33</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
       <c r="G15" s="3" t="s">
         <v>2</v>
       </c>
@@ -720,8 +736,8 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7" t="s">
+      <c r="E16" s="8"/>
+      <c r="F16" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="3" t="s">
@@ -736,8 +752,8 @@
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
       <c r="G17" s="3" t="s">
         <v>3</v>
       </c>
@@ -750,8 +766,8 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
       <c r="G18" s="3" t="s">
         <v>2</v>
       </c>
@@ -786,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -815,124 +831,124 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="4" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="4" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="4" t="s">
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
         <v>0.26989999999999997</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="6">
+      <c r="G3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7">
         <v>2.6100000000000002E-2</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="6">
+      <c r="K3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="7">
         <v>3.4799999999999998E-2</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="A4" s="8"/>
+      <c r="B4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7">
         <v>0.34820000000000001</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="6">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="7">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L4" s="6">
+      <c r="J4" s="8"/>
+      <c r="K4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="7">
         <v>1.7399999999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="A5" s="8"/>
+      <c r="B5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7">
         <v>0.3</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="6">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="7">
         <v>1.7399999999999999E-2</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L5" s="6">
+      <c r="J5" s="8"/>
+      <c r="K5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="7">
         <v>1.7399999999999999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -947,131 +963,131 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="4" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="4" t="s">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="4" t="s">
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="6">
+      <c r="B10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7">
         <v>0.20019999999999999</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="6">
+      <c r="G10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="7">
         <v>1.7399999999999999E-2</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="L10" s="6">
+      <c r="K10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" s="7">
         <v>1.7399999999999999E-2</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="6">
+      <c r="A11" s="8"/>
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7">
         <v>0.1045</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" s="6">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="7">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L11" s="6">
+      <c r="J11" s="8"/>
+      <c r="K11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11" s="7">
         <v>8.6999999999999994E-3</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="6">
+      <c r="A12" s="8"/>
+      <c r="B12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="7">
         <v>0.22</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" s="6">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="7">
         <v>3.4799999999999998E-2</v>
       </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L12" s="6">
+      <c r="J12" s="8"/>
+      <c r="K12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" s="7">
         <v>2.6100000000000002E-2</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1093,8 +1109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1104,15 +1120,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
@@ -1130,7 +1146,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1140,10 +1156,10 @@
         <v>1.732</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -1154,7 +1170,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1162,8 +1178,8 @@
         <v>1.41</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
       <c r="G4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1172,7 +1188,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
@@ -1180,8 +1196,8 @@
         <v>2.4900000000000002</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
       <c r="G5" s="3" t="s">
         <v>2</v>
       </c>
@@ -1194,8 +1210,8 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="3" t="s">
@@ -1210,8 +1226,8 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
       <c r="G7" s="3" t="s">
         <v>3</v>
       </c>
@@ -1224,8 +1240,8 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
       <c r="G8" s="3" t="s">
         <v>2</v>
       </c>
@@ -1254,15 +1270,15 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
@@ -1280,7 +1296,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1290,10 +1306,10 @@
         <v>6.3289999999999997</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="8" t="s">
         <v>9</v>
       </c>
       <c r="G13" s="3" t="s">
@@ -1304,7 +1320,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1312,8 +1328,8 @@
         <v>8.14</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1322,7 +1338,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
+      <c r="A15" s="8"/>
       <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
@@ -1330,8 +1346,8 @@
         <v>4.3959999999999999</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
       <c r="G15" s="3" t="s">
         <v>2</v>
       </c>
@@ -1344,8 +1360,8 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7" t="s">
+      <c r="E16" s="8"/>
+      <c r="F16" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="3" t="s">
@@ -1360,8 +1376,8 @@
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
       <c r="G17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1374,8 +1390,8 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
       <c r="G18" s="3" t="s">
         <v>2</v>
       </c>
@@ -1399,4 +1415,68 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>48.36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="4"/>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>50.99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>18.579999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="4"/>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>20.94</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>